--- a/Data/CasesVS Vax/vacVscase.xlsx
+++ b/Data/CasesVS Vax/vacVscase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58719304-0DDF-4495-AF0C-37B975D5A2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D1F626-EAE7-4725-BA76-D06027AEDB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="2496" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Vaccination Date</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Cases</t>
+  </si>
+  <si>
+    <t>Fatality</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -158,9 +161,6 @@
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C293"/>
+  <dimension ref="A1:D292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="D293" sqref="D293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -466,18 +466,21 @@
     <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>44179</v>
       </c>
@@ -487,8 +490,11 @@
       <c r="C2" s="3">
         <v>8771</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>27172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>44180</v>
       </c>
@@ -498,8 +504,11 @@
       <c r="C3" s="3">
         <v>14569</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>27391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>44181</v>
       </c>
@@ -509,8 +518,11 @@
       <c r="C4" s="3">
         <v>14805</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>27605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>44182</v>
       </c>
@@ -520,8 +532,11 @@
       <c r="C5" s="3">
         <v>16864</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>27840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>44183</v>
       </c>
@@ -531,8 +546,11 @@
       <c r="C6" s="3">
         <v>12192</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>28085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>44184</v>
       </c>
@@ -542,8 +560,11 @@
       <c r="C7" s="3">
         <v>12914</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>28307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>44185</v>
       </c>
@@ -553,8 +574,11 @@
       <c r="C8" s="3">
         <v>6244</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>28539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>44186</v>
       </c>
@@ -564,8 +588,11 @@
       <c r="C9" s="3">
         <v>8107</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>28771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>44187</v>
       </c>
@@ -575,8 +602,11 @@
       <c r="C10" s="3">
         <v>16607</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>29007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>44188</v>
       </c>
@@ -586,8 +616,11 @@
       <c r="C11" s="3">
         <v>19185</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>29249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>44189</v>
       </c>
@@ -597,8 +630,11 @@
       <c r="C12" s="3">
         <v>12783</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>29487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>44190</v>
       </c>
@@ -608,8 +644,11 @@
       <c r="C13" s="3">
         <v>3123</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>29710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>44191</v>
       </c>
@@ -619,8 +658,11 @@
       <c r="C14" s="3">
         <v>2127</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>29942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>44192</v>
       </c>
@@ -630,8 +672,11 @@
       <c r="C15" s="3">
         <v>6105</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>30200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>44193</v>
       </c>
@@ -641,8 +686,11 @@
       <c r="C16" s="3">
         <v>12841</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>30431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>44194</v>
       </c>
@@ -652,8 +700,11 @@
       <c r="C17" s="3">
         <v>26990</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>30714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>44195</v>
       </c>
@@ -663,8 +714,11 @@
       <c r="C18" s="3">
         <v>17458</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>31010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>44196</v>
       </c>
@@ -674,8 +728,11 @@
       <c r="C19" s="3">
         <v>14604</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>31276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>44197</v>
       </c>
@@ -685,8 +742,11 @@
       <c r="C20" s="3">
         <v>12369</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>31552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>44198</v>
       </c>
@@ -696,8 +756,11 @@
       <c r="C21" s="3">
         <v>3995</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>31819</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>44199</v>
       </c>
@@ -707,8 +770,11 @@
       <c r="C22" s="3">
         <v>14535</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>32121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>44200</v>
       </c>
@@ -718,8 +784,11 @@
       <c r="C23" s="3">
         <v>15976</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>32449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>44201</v>
       </c>
@@ -729,8 +798,11 @@
       <c r="C24" s="3">
         <v>26543</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>32776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>44202</v>
       </c>
@@ -740,8 +812,11 @@
       <c r="C25" s="3">
         <v>19535</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>33121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>44203</v>
       </c>
@@ -751,8 +826,11 @@
       <c r="C26" s="3">
         <v>19598</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>33465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>44204</v>
       </c>
@@ -762,8 +840,11 @@
       <c r="C27" s="3">
         <v>17335</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>33806</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>44205</v>
       </c>
@@ -773,8 +854,11 @@
       <c r="C28" s="3">
         <v>18861</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>34181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>44206</v>
       </c>
@@ -784,8 +868,11 @@
       <c r="C29" s="3">
         <v>12954</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>34484</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>44207</v>
       </c>
@@ -795,8 +882,11 @@
       <c r="C30" s="3">
         <v>13308</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>34814</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>44208</v>
       </c>
@@ -806,8 +896,11 @@
       <c r="C31" s="3">
         <v>22110</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>35174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>44209</v>
       </c>
@@ -817,8 +910,11 @@
       <c r="C32" s="3">
         <v>21009</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>35560</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>44210</v>
       </c>
@@ -828,8 +924,11 @@
       <c r="C33" s="3">
         <v>20047</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>35927</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>44211</v>
       </c>
@@ -839,8 +938,11 @@
       <c r="C34" s="3">
         <v>21343</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>36254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>44212</v>
       </c>
@@ -850,8 +952,11 @@
       <c r="C35" s="3">
         <v>20530</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>36564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>44213</v>
       </c>
@@ -861,8 +966,11 @@
       <c r="C36" s="3">
         <v>15667</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>36895</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>44214</v>
       </c>
@@ -872,8 +980,11 @@
       <c r="C37" s="3">
         <v>10110</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>37204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>44215</v>
       </c>
@@ -883,8 +994,11 @@
       <c r="C38" s="3">
         <v>8312</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>37541</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>44216</v>
       </c>
@@ -894,8 +1008,11 @@
       <c r="C39" s="3">
         <v>25512</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>37882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>44217</v>
       </c>
@@ -905,8 +1022,11 @@
       <c r="C40" s="3">
         <v>18370</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>38234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>44218</v>
       </c>
@@ -916,8 +1036,11 @@
       <c r="C41" s="3">
         <v>17862</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>38529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>44219</v>
       </c>
@@ -927,8 +1050,11 @@
       <c r="C42" s="3">
         <v>13717</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>38820</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>44220</v>
       </c>
@@ -938,8 +1064,11 @@
       <c r="C43" s="3">
         <v>9731</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>39149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>44221</v>
       </c>
@@ -949,8 +1078,11 @@
       <c r="C44" s="3">
         <v>5205</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>39465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44222</v>
       </c>
@@ -960,8 +1092,11 @@
       <c r="C45" s="3">
         <v>21813</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>39792</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>44223</v>
       </c>
@@ -971,8 +1106,11 @@
       <c r="C46" s="3">
         <v>14731</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>40106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>44224</v>
       </c>
@@ -982,8 +1120,11 @@
       <c r="C47" s="3">
         <v>14445</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>40386</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>44225</v>
       </c>
@@ -993,8 +1134,11 @@
       <c r="C48" s="3">
         <v>14750</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>40662</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>44226</v>
       </c>
@@ -1004,8 +1148,11 @@
       <c r="C49" s="3">
         <v>14849</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>40934</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>44227</v>
       </c>
@@ -1015,8 +1162,11 @@
       <c r="C50" s="3">
         <v>9903</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>41197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>44228</v>
       </c>
@@ -1026,8 +1176,11 @@
       <c r="C51" s="3">
         <v>11885</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>41431</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>44229</v>
       </c>
@@ -1037,8 +1190,11 @@
       <c r="C52" s="3">
         <v>18951</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>41676</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>44230</v>
       </c>
@@ -1048,8 +1204,11 @@
       <c r="C53" s="3">
         <v>13181</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>44231</v>
       </c>
@@ -1059,8 +1218,11 @@
       <c r="C54" s="3">
         <v>11999</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>42218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>44232</v>
       </c>
@@ -1070,8 +1232,11 @@
       <c r="C55" s="3">
         <v>10410</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>42467</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>44233</v>
       </c>
@@ -1081,8 +1246,11 @@
       <c r="C56" s="3">
         <v>10904</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>44234</v>
       </c>
@@ -1092,8 +1260,11 @@
       <c r="C57" s="3">
         <v>5278</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>42895</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>44235</v>
       </c>
@@ -1103,8 +1274,11 @@
       <c r="C58" s="3">
         <v>6613</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>43112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>44236</v>
       </c>
@@ -1114,8 +1288,11 @@
       <c r="C59" s="3">
         <v>10378</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>43319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>44237</v>
       </c>
@@ -1125,8 +1302,11 @@
       <c r="C60" s="3">
         <v>9936</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>44238</v>
       </c>
@@ -1136,8 +1316,11 @@
       <c r="C61" s="3">
         <v>8435</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>43723</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>44239</v>
       </c>
@@ -1147,8 +1330,11 @@
       <c r="C62" s="3">
         <v>9049</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>44240</v>
       </c>
@@ -1158,8 +1344,11 @@
       <c r="C63" s="3">
         <v>8498</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>44241</v>
       </c>
@@ -1169,8 +1358,11 @@
       <c r="C64" s="3">
         <v>5725</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>44242</v>
       </c>
@@ -1180,8 +1372,11 @@
       <c r="C65" s="3">
         <v>2981</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>44243</v>
       </c>
@@ -1191,8 +1386,11 @@
       <c r="C66" s="3">
         <v>3308</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>44244</v>
       </c>
@@ -1202,8 +1400,11 @@
       <c r="C67" s="3">
         <v>2563</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>44245</v>
       </c>
@@ -1213,8 +1414,11 @@
       <c r="C68" s="3">
         <v>2690</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>44246</v>
       </c>
@@ -1224,8 +1428,11 @@
       <c r="C69" s="3">
         <v>2150</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>45175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>44247</v>
       </c>
@@ -1235,8 +1442,11 @@
       <c r="C70" s="3">
         <v>4902</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>45340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>44248</v>
       </c>
@@ -1246,8 +1456,11 @@
       <c r="C71" s="3">
         <v>3617</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>44249</v>
       </c>
@@ -1257,8 +1470,11 @@
       <c r="C72" s="3">
         <v>2355</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>44250</v>
       </c>
@@ -1268,8 +1484,11 @@
       <c r="C73" s="3">
         <v>7556</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>44251</v>
       </c>
@@ -1279,8 +1498,11 @@
       <c r="C74" s="3">
         <v>4991</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>44252</v>
       </c>
@@ -1290,8 +1512,11 @@
       <c r="C75" s="3">
         <v>4889</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>46057</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>44253</v>
       </c>
@@ -1301,8 +1526,11 @@
       <c r="C76" s="3">
         <v>5198</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>46212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>44254</v>
       </c>
@@ -1312,8 +1540,11 @@
       <c r="C77" s="3">
         <v>5687</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>46325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>44255</v>
       </c>
@@ -1323,8 +1554,11 @@
       <c r="C78" s="3">
         <v>2921</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>46426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>44256</v>
       </c>
@@ -1334,8 +1568,11 @@
       <c r="C79" s="3">
         <v>1637</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>46562</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>44257</v>
       </c>
@@ -1345,8 +1582,11 @@
       <c r="C80" s="3">
         <v>6613</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>46662</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>44258</v>
       </c>
@@ -1356,8 +1596,11 @@
       <c r="C81" s="3">
         <v>4781</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>46777</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>44259</v>
       </c>
@@ -1367,8 +1610,11 @@
       <c r="C82" s="3">
         <v>3493</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>46881</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>44260</v>
       </c>
@@ -1378,8 +1624,11 @@
       <c r="C83" s="3">
         <v>4277</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>46984</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>44261</v>
       </c>
@@ -1389,8 +1638,11 @@
       <c r="C84" s="3">
         <v>3631</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>47081</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>44262</v>
       </c>
@@ -1400,8 +1652,11 @@
       <c r="C85" s="3">
         <v>1805</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>47161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>44263</v>
       </c>
@@ -1411,8 +1666,11 @@
       <c r="C86" s="3">
         <v>1084</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>47263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>44264</v>
       </c>
@@ -1422,8 +1680,11 @@
       <c r="C87" s="3">
         <v>3744</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>47342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>44265</v>
       </c>
@@ -1433,8 +1694,11 @@
       <c r="C88" s="3">
         <v>3104</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>47444</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>44266</v>
       </c>
@@ -1444,8 +1708,11 @@
       <c r="C89" s="3">
         <v>3032</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>47537</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>44267</v>
       </c>
@@ -1455,8 +1722,11 @@
       <c r="C90" s="3">
         <v>4650</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>47612</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>44268</v>
       </c>
@@ -1466,8 +1736,11 @@
       <c r="C91" s="3">
         <v>3726</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>47687</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>44269</v>
       </c>
@@ -1477,8 +1750,11 @@
       <c r="C92" s="3">
         <v>2004</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>47750</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>44270</v>
       </c>
@@ -1488,8 +1764,11 @@
       <c r="C93" s="3">
         <v>1437</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>47833</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>44271</v>
       </c>
@@ -1499,8 +1778,11 @@
       <c r="C94" s="3">
         <v>4279</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>47912</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>44272</v>
       </c>
@@ -1510,8 +1792,11 @@
       <c r="C95" s="3">
         <v>4034</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>47993</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>44273</v>
       </c>
@@ -1521,8 +1806,11 @@
       <c r="C96" s="3">
         <v>3757</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>48065</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>44274</v>
       </c>
@@ -1532,8 +1820,11 @@
       <c r="C97" s="3">
         <v>2552</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>48127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>44275</v>
       </c>
@@ -1543,8 +1834,11 @@
       <c r="C98" s="3">
         <v>2428</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>48203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>44276</v>
       </c>
@@ -1554,8 +1848,11 @@
       <c r="C99" s="3">
         <v>1677</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>48260</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>44277</v>
       </c>
@@ -1565,8 +1862,11 @@
       <c r="C100" s="3">
         <v>1516</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>48321</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>44278</v>
       </c>
@@ -1576,8 +1876,11 @@
       <c r="C101" s="3">
         <v>3205</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>48377</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>44279</v>
       </c>
@@ -1587,8 +1890,11 @@
       <c r="C102" s="3">
         <v>2758</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>48432</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>44280</v>
       </c>
@@ -1598,8 +1904,11 @@
       <c r="C103" s="3">
         <v>2167</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>48482</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>44281</v>
       </c>
@@ -1609,8 +1918,11 @@
       <c r="C104" s="3">
         <v>2239</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>48534</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>44282</v>
       </c>
@@ -1620,8 +1932,11 @@
       <c r="C105" s="3">
         <v>2292</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>48589</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>44283</v>
       </c>
@@ -1631,8 +1946,11 @@
       <c r="C106" s="3">
         <v>1918</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>48633</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>44284</v>
       </c>
@@ -1642,8 +1960,11 @@
       <c r="C107" s="3">
         <v>1881</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>48679</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>44285</v>
       </c>
@@ -1653,8 +1974,11 @@
       <c r="C108" s="3">
         <v>3123</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>48707</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>44286</v>
       </c>
@@ -1664,8 +1988,11 @@
       <c r="C109" s="3">
         <v>3077</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>48754</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>44287</v>
       </c>
@@ -1675,8 +2002,11 @@
       <c r="C110" s="3">
         <v>2409</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>48804</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>44288</v>
       </c>
@@ -1686,8 +2016,11 @@
       <c r="C111" s="3">
         <v>2528</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>48847</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>44289</v>
       </c>
@@ -1697,8 +2030,11 @@
       <c r="C112" s="3">
         <v>1250</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>48891</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>44290</v>
       </c>
@@ -1708,8 +2044,11 @@
       <c r="C113" s="3">
         <v>1465</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>48927</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>44291</v>
       </c>
@@ -1719,8 +2058,11 @@
       <c r="C114" s="3">
         <v>837</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>48965</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>44292</v>
       </c>
@@ -1730,8 +2072,11 @@
       <c r="C115" s="3">
         <v>3365</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>49013</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>44293</v>
       </c>
@@ -1741,8 +2086,11 @@
       <c r="C116" s="3">
         <v>3285</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>49058</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>44294</v>
       </c>
@@ -1752,8 +2100,11 @@
       <c r="C117" s="3">
         <v>2445</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>49092</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>44295</v>
       </c>
@@ -1763,8 +2114,11 @@
       <c r="C118" s="3">
         <v>2227</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>49136</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>44296</v>
       </c>
@@ -1774,8 +2128,11 @@
       <c r="C119" s="3">
         <v>1902</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>49179</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>44297</v>
       </c>
@@ -1785,8 +2142,11 @@
       <c r="C120" s="3">
         <v>1516</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>49215</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>44298</v>
       </c>
@@ -1796,8 +2156,11 @@
       <c r="C121" s="3">
         <v>1444</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>49261</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>44299</v>
       </c>
@@ -1807,8 +2170,11 @@
       <c r="C122" s="3">
         <v>4370</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>49309</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>44300</v>
       </c>
@@ -1818,8 +2184,11 @@
       <c r="C123" s="3">
         <v>2267</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>49356</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>44301</v>
       </c>
@@ -1829,8 +2198,11 @@
       <c r="C124" s="3">
         <v>2770</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>49392</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>44302</v>
       </c>
@@ -1840,8 +2212,11 @@
       <c r="C125" s="3">
         <v>2225</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>49431</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>44303</v>
       </c>
@@ -1851,8 +2226,11 @@
       <c r="C126" s="3">
         <v>1657</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>49470</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>44304</v>
       </c>
@@ -1862,8 +2240,11 @@
       <c r="C127" s="3">
         <v>1434</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>49523</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>44305</v>
       </c>
@@ -1873,8 +2254,11 @@
       <c r="C128" s="3">
         <v>1073</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>49558</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>44306</v>
       </c>
@@ -1884,8 +2268,11 @@
       <c r="C129" s="3">
         <v>3554</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>49599</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>44307</v>
       </c>
@@ -1895,8 +2282,11 @@
       <c r="C130" s="3">
         <v>3503</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>49637</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>44308</v>
       </c>
@@ -1906,8 +2296,11 @@
       <c r="C131" s="3">
         <v>2195</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>49677</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>44309</v>
       </c>
@@ -1917,8 +2310,11 @@
       <c r="C132" s="3">
         <v>2547</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>49722</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>44310</v>
       </c>
@@ -1928,8 +2324,11 @@
       <c r="C133" s="3">
         <v>1768</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>49761</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>44311</v>
       </c>
@@ -1939,8 +2338,11 @@
       <c r="C134" s="3">
         <v>1128</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>49798</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>44312</v>
       </c>
@@ -1950,8 +2352,11 @@
       <c r="C135" s="3">
         <v>1390</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>49827</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>44313</v>
       </c>
@@ -1961,8 +2366,11 @@
       <c r="C136" s="3">
         <v>3293</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>49870</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>44314</v>
       </c>
@@ -1972,8 +2380,11 @@
       <c r="C137" s="3">
         <v>2871</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>49912</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>44315</v>
       </c>
@@ -1983,8 +2394,11 @@
       <c r="C138" s="3">
         <v>2404</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>49953</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>44316</v>
       </c>
@@ -1994,8 +2408,11 @@
       <c r="C139" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>49985</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>44317</v>
       </c>
@@ -2005,8 +2422,11 @@
       <c r="C140" s="3">
         <v>2515</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>50020</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>44318</v>
       </c>
@@ -2016,8 +2436,11 @@
       <c r="C141" s="3">
         <v>919</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>50051</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>44319</v>
       </c>
@@ -2027,8 +2450,11 @@
       <c r="C142" s="3">
         <v>1203</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>50089</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>44320</v>
       </c>
@@ -2038,8 +2464,11 @@
       <c r="C143" s="3">
         <v>3217</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>50136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>44321</v>
       </c>
@@ -2049,8 +2478,11 @@
       <c r="C144" s="3">
         <v>1798</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>50175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>44322</v>
       </c>
@@ -2060,8 +2492,11 @@
       <c r="C145" s="3">
         <v>1408</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>50214</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>44323</v>
       </c>
@@ -2071,8 +2506,11 @@
       <c r="C146" s="3">
         <v>1962</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>50241</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>44324</v>
       </c>
@@ -2082,8 +2520,11 @@
       <c r="C147" s="3">
         <v>1445</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>50272</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>44325</v>
       </c>
@@ -2093,8 +2534,11 @@
       <c r="C148" s="3">
         <v>1079</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>50302</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>44326</v>
       </c>
@@ -2104,8 +2548,11 @@
       <c r="C149" s="3">
         <v>651</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>50336</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>44327</v>
       </c>
@@ -2115,8 +2562,11 @@
       <c r="C150" s="3">
         <v>2859</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>50375</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>44328</v>
       </c>
@@ -2126,8 +2576,11 @@
       <c r="C151" s="3">
         <v>1656</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>50401</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>44329</v>
       </c>
@@ -2137,8 +2590,11 @@
       <c r="C152" s="3">
         <v>1545</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D152">
+        <v>50433</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="7">
         <v>44330</v>
       </c>
@@ -2148,8 +2604,11 @@
       <c r="C153" s="3">
         <v>1766</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D153">
+        <v>50470</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="7">
         <v>44331</v>
       </c>
@@ -2159,8 +2618,11 @@
       <c r="C154" s="3">
         <v>1254</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D154">
+        <v>50509</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="7">
         <v>44332</v>
       </c>
@@ -2170,8 +2632,11 @@
       <c r="C155" s="3">
         <v>388</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D155">
+        <v>50535</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="7">
         <v>44333</v>
       </c>
@@ -2181,8 +2646,11 @@
       <c r="C156" s="3">
         <v>318</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D156">
+        <v>50572</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
         <v>44334</v>
       </c>
@@ -2192,8 +2660,11 @@
       <c r="C157" s="3">
         <v>2835</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D157">
+        <v>50611</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="7">
         <v>44335</v>
       </c>
@@ -2203,8 +2674,11 @@
       <c r="C158" s="3">
         <v>1464</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D158">
+        <v>50637</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="7">
         <v>44336</v>
       </c>
@@ -2214,8 +2688,11 @@
       <c r="C159" s="3">
         <v>1237</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D159">
+        <v>50667</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="7">
         <v>44337</v>
       </c>
@@ -2225,8 +2702,11 @@
       <c r="C160" s="3">
         <v>1011</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D160">
+        <v>50698</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="7">
         <v>44338</v>
       </c>
@@ -2236,8 +2716,11 @@
       <c r="C161" s="3">
         <v>857</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D161">
+        <v>50722</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="7">
         <v>44339</v>
       </c>
@@ -2247,8 +2730,11 @@
       <c r="C162" s="3">
         <v>519</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D162">
+        <v>50760</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
         <v>44340</v>
       </c>
@@ -2258,8 +2744,11 @@
       <c r="C163" s="3">
         <v>574</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D163">
+        <v>50793</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="7">
         <v>44341</v>
       </c>
@@ -2269,8 +2758,11 @@
       <c r="C164" s="3">
         <v>1928</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D164">
+        <v>50826</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="7">
         <v>44342</v>
       </c>
@@ -2280,8 +2772,11 @@
       <c r="C165" s="3">
         <v>1595</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D165">
+        <v>50859</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="7">
         <v>44343</v>
       </c>
@@ -2291,8 +2786,11 @@
       <c r="C166" s="3">
         <v>778</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D166">
+        <v>50891</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="7">
         <v>44344</v>
       </c>
@@ -2302,8 +2800,11 @@
       <c r="C167" s="3">
         <v>1411</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D167">
+        <v>50921</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="7">
         <v>44345</v>
       </c>
@@ -2313,8 +2814,11 @@
       <c r="C168" s="3">
         <v>762</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D168">
+        <v>50938</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
         <v>44346</v>
       </c>
@@ -2324,8 +2828,11 @@
       <c r="C169" s="3">
         <v>286</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D169">
+        <v>50963</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="7">
         <v>44347</v>
       </c>
@@ -2335,8 +2842,11 @@
       <c r="C170" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D170">
+        <v>50983</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="7">
         <v>44348</v>
       </c>
@@ -2346,8 +2856,11 @@
       <c r="C171" s="3">
         <v>94</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D171">
+        <v>51011</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="7">
         <v>44349</v>
       </c>
@@ -2357,8 +2870,11 @@
       <c r="C172" s="3">
         <v>1341</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D172">
+        <v>51034</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="7">
         <v>44350</v>
       </c>
@@ -2368,8 +2884,11 @@
       <c r="C173" s="3">
         <v>1078</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D173">
+        <v>51053</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="7">
         <v>44351</v>
       </c>
@@ -2379,8 +2898,11 @@
       <c r="C174" s="3">
         <v>1514</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D174">
+        <v>51081</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="7">
         <v>44352</v>
       </c>
@@ -2390,8 +2912,11 @@
       <c r="C175" s="3">
         <v>1257</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D175">
+        <v>51101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="7">
         <v>44353</v>
       </c>
@@ -2401,8 +2926,11 @@
       <c r="C176" s="3">
         <v>584</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D176">
+        <v>51125</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="7">
         <v>44354</v>
       </c>
@@ -2412,8 +2940,11 @@
       <c r="C177" s="3">
         <v>339</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D177">
+        <v>51145</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="7">
         <v>44355</v>
       </c>
@@ -2423,8 +2954,11 @@
       <c r="C178" s="3">
         <v>1036</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D178">
+        <v>51165</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="7">
         <v>44356</v>
       </c>
@@ -2434,8 +2968,11 @@
       <c r="C179" s="3">
         <v>1361</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D179">
+        <v>51183</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="7">
         <v>44357</v>
       </c>
@@ -2445,8 +2982,11 @@
       <c r="C180" s="3">
         <v>1418</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D180">
+        <v>51205</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="7">
         <v>44358</v>
       </c>
@@ -2456,8 +2996,11 @@
       <c r="C181" s="3">
         <v>798</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D181">
+        <v>51224</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="7">
         <v>44359</v>
       </c>
@@ -2467,8 +3010,11 @@
       <c r="C182" s="3">
         <v>937</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D182">
+        <v>51240</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="7">
         <v>44360</v>
       </c>
@@ -2478,8 +3024,11 @@
       <c r="C183" s="3">
         <v>240</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D183">
+        <v>51265</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="7">
         <v>44361</v>
       </c>
@@ -2489,8 +3038,11 @@
       <c r="C184" s="3">
         <v>278</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D184">
+        <v>51281</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="7">
         <v>44362</v>
       </c>
@@ -2500,8 +3052,11 @@
       <c r="C185" s="3">
         <v>1207</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D185">
+        <v>51298</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="7">
         <v>44363</v>
       </c>
@@ -2511,8 +3066,11 @@
       <c r="C186" s="3">
         <v>782</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D186">
+        <v>51318</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="7">
         <v>44364</v>
       </c>
@@ -2522,8 +3080,11 @@
       <c r="C187" s="3">
         <v>1214</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D187">
+        <v>51335</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="7">
         <v>44365</v>
       </c>
@@ -2533,8 +3094,11 @@
       <c r="C188" s="3">
         <v>737</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D188">
+        <v>51348</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="7">
         <v>44366</v>
       </c>
@@ -2544,8 +3108,11 @@
       <c r="C189" s="3">
         <v>1125</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D189">
+        <v>51372</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="7">
         <v>44367</v>
       </c>
@@ -2555,8 +3122,11 @@
       <c r="C190" s="3">
         <v>387</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D190">
+        <v>51393</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="7">
         <v>44368</v>
       </c>
@@ -2566,8 +3136,11 @@
       <c r="C191" s="3">
         <v>124</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D191">
+        <v>51412</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="7">
         <v>44369</v>
       </c>
@@ -2577,8 +3150,11 @@
       <c r="C192" s="3">
         <v>907</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D192">
+        <v>51431</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="7">
         <v>44370</v>
       </c>
@@ -2588,8 +3164,11 @@
       <c r="C193" s="3">
         <v>870</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D193">
+        <v>51450</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="7">
         <v>44371</v>
       </c>
@@ -2599,8 +3178,11 @@
       <c r="C194" s="3">
         <v>1091</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D194">
+        <v>51466</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="7">
         <v>44372</v>
       </c>
@@ -2610,8 +3192,11 @@
       <c r="C195" s="3">
         <v>684</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D195">
+        <v>51485</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="7">
         <v>44373</v>
       </c>
@@ -2621,8 +3206,11 @@
       <c r="C196" s="3">
         <v>888</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D196">
+        <v>51503</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="7">
         <v>44374</v>
       </c>
@@ -2632,8 +3220,11 @@
       <c r="C197" s="3">
         <v>261</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D197">
+        <v>51522</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="7">
         <v>44375</v>
       </c>
@@ -2643,8 +3234,11 @@
       <c r="C198" s="3">
         <v>221</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D198">
+        <v>51548</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="7">
         <v>44376</v>
       </c>
@@ -2654,8 +3248,11 @@
       <c r="C199" s="3">
         <v>1186</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D199">
+        <v>51567</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="7">
         <v>44377</v>
       </c>
@@ -2665,8 +3262,11 @@
       <c r="C200" s="3">
         <v>912</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D200">
+        <v>51592</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="7">
         <v>44378</v>
       </c>
@@ -2676,8 +3276,11 @@
       <c r="C201" s="3">
         <v>1144</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D201">
+        <v>51606</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="7">
         <v>44379</v>
       </c>
@@ -2687,8 +3290,11 @@
       <c r="C202" s="3">
         <v>1320</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D202">
+        <v>51628</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="7">
         <v>44380</v>
       </c>
@@ -2698,8 +3304,11 @@
       <c r="C203" s="3">
         <v>829</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D203">
+        <v>51653</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="7">
         <v>44381</v>
       </c>
@@ -2709,8 +3318,11 @@
       <c r="C204" s="3">
         <v>254</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D204">
+        <v>51669</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="7">
         <v>44382</v>
       </c>
@@ -2720,8 +3332,11 @@
       <c r="C205" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D205">
+        <v>51690</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="7">
         <v>44383</v>
       </c>
@@ -2731,8 +3346,11 @@
       <c r="C206" s="3">
         <v>573</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D206">
+        <v>51710</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="7">
         <v>44384</v>
       </c>
@@ -2742,8 +3360,11 @@
       <c r="C207" s="3">
         <v>1282</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D207">
+        <v>51733</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="7">
         <v>44385</v>
       </c>
@@ -2753,8 +3374,11 @@
       <c r="C208" s="3">
         <v>2853</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D208">
+        <v>51754</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="7">
         <v>44386</v>
       </c>
@@ -2764,8 +3388,11 @@
       <c r="C209" s="3">
         <v>1798</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D209">
+        <v>51783</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="7">
         <v>44387</v>
       </c>
@@ -2775,8 +3402,11 @@
       <c r="C210" s="3">
         <v>1719</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D210">
+        <v>51799</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="7">
         <v>44388</v>
       </c>
@@ -2786,8 +3416,11 @@
       <c r="C211" s="3">
         <v>516</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D211">
+        <v>51824</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="7">
         <v>44389</v>
       </c>
@@ -2797,8 +3430,11 @@
       <c r="C212" s="3">
         <v>396</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D212">
+        <v>51852</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="7">
         <v>44390</v>
       </c>
@@ -2808,8 +3444,11 @@
       <c r="C213" s="3">
         <v>2613</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D213">
+        <v>51879</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="7">
         <v>44391</v>
       </c>
@@ -2819,8 +3458,11 @@
       <c r="C214" s="3">
         <v>2154</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D214">
+        <v>51905</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="7">
         <v>44392</v>
       </c>
@@ -2830,8 +3472,11 @@
       <c r="C215" s="3">
         <v>3462</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D215">
+        <v>51935</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="7">
         <v>44393</v>
       </c>
@@ -2841,8 +3486,11 @@
       <c r="C216" s="3">
         <v>3008</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D216">
+        <v>51971</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="7">
         <v>44394</v>
       </c>
@@ -2852,8 +3500,11 @@
       <c r="C217" s="3">
         <v>2686</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D217">
+        <v>51998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="7">
         <v>44395</v>
       </c>
@@ -2863,8 +3514,11 @@
       <c r="C218" s="3">
         <v>1815</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D218">
+        <v>52031</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="7">
         <v>44396</v>
       </c>
@@ -2874,8 +3528,11 @@
       <c r="C219" s="3">
         <v>889</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D219">
+        <v>52069</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="7">
         <v>44397</v>
       </c>
@@ -2885,8 +3542,11 @@
       <c r="C220" s="3">
         <v>3304</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D220">
+        <v>52111</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="7">
         <v>44398</v>
       </c>
@@ -2896,8 +3556,11 @@
       <c r="C221" s="3">
         <v>3621</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D221">
+        <v>52156</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="7">
         <v>44399</v>
       </c>
@@ -2907,8 +3570,11 @@
       <c r="C222" s="3">
         <v>6417</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D222">
+        <v>52194</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="7">
         <v>44400</v>
       </c>
@@ -2918,8 +3584,11 @@
       <c r="C223" s="3">
         <v>5391</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D223">
+        <v>52249</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="7">
         <v>44401</v>
       </c>
@@ -2929,8 +3598,11 @@
       <c r="C224" s="3">
         <v>4978</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D224">
+        <v>52297</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="7">
         <v>44402</v>
       </c>
@@ -2940,8 +3612,11 @@
       <c r="C225" s="3">
         <v>2036</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D225">
+        <v>52346</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="7">
         <v>44403</v>
       </c>
@@ -2951,8 +3626,11 @@
       <c r="C226" s="3">
         <v>1232</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D226">
+        <v>52400</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="7">
         <v>44404</v>
       </c>
@@ -2962,8 +3640,11 @@
       <c r="C227" s="3">
         <v>6571</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D227">
+        <v>52466</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="7">
         <v>44405</v>
       </c>
@@ -2973,8 +3654,11 @@
       <c r="C228" s="3">
         <v>10086</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D228">
+        <v>52527</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="7">
         <v>44406</v>
       </c>
@@ -2984,8 +3668,11 @@
       <c r="C229" s="3">
         <v>6167</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D229">
+        <v>52596</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="7">
         <v>44407</v>
       </c>
@@ -2995,8 +3682,11 @@
       <c r="C230" s="3">
         <v>13149</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D230">
+        <v>52661</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="7">
         <v>44408</v>
       </c>
@@ -3006,8 +3696,11 @@
       <c r="C231" s="3">
         <v>10929</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D231">
+        <v>52736</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="7">
         <v>44409</v>
       </c>
@@ -3017,8 +3710,11 @@
       <c r="C232" s="3">
         <v>2049</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D232">
+        <v>52824</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="7">
         <v>44410</v>
       </c>
@@ -3028,8 +3724,11 @@
       <c r="C233" s="3">
         <v>3781</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D233">
+        <v>52915</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="7">
         <v>44411</v>
       </c>
@@ -3039,8 +3738,11 @@
       <c r="C234" s="3">
         <v>11774</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D234">
+        <v>52994</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="7">
         <v>44412</v>
       </c>
@@ -3050,8 +3752,11 @@
       <c r="C235" s="3">
         <v>15558</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D235">
+        <v>53095</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="7">
         <v>44413</v>
       </c>
@@ -3061,8 +3766,11 @@
       <c r="C236" s="3">
         <v>10912</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D236">
+        <v>53197</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="7">
         <v>44414</v>
       </c>
@@ -3072,8 +3780,11 @@
       <c r="C237" s="3">
         <v>8833</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D237">
+        <v>53334</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="7">
         <v>44415</v>
       </c>
@@ -3083,8 +3794,11 @@
       <c r="C238" s="3">
         <v>16899</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D238">
+        <v>53476</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="7">
         <v>44416</v>
       </c>
@@ -3094,8 +3808,11 @@
       <c r="C239" s="3">
         <v>5377</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D239">
+        <v>53629</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="7">
         <v>44417</v>
       </c>
@@ -3105,8 +3822,11 @@
       <c r="C240" s="3">
         <v>2151</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D240">
+        <v>53795</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="7">
         <v>44418</v>
       </c>
@@ -3116,8 +3836,11 @@
       <c r="C241" s="3">
         <v>13935</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D241">
+        <v>53956</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="7">
         <v>44419</v>
       </c>
@@ -3127,8 +3850,11 @@
       <c r="C242" s="3">
         <v>14214</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D242">
+        <v>54133</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="7">
         <v>44420</v>
       </c>
@@ -3138,8 +3864,11 @@
       <c r="C243" s="3">
         <v>11975</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D243">
+        <v>54310</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="7">
         <v>44421</v>
       </c>
@@ -3149,8 +3878,11 @@
       <c r="C244" s="3">
         <v>10593</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D244">
+        <v>54504</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="7">
         <v>44422</v>
       </c>
@@ -3160,8 +3892,11 @@
       <c r="C245" s="3">
         <v>21896</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D245">
+        <v>54723</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="7">
         <v>44423</v>
       </c>
@@ -3171,8 +3906,11 @@
       <c r="C246" s="3">
         <v>4209</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D246">
+        <v>54929</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="7">
         <v>44424</v>
       </c>
@@ -3182,8 +3920,11 @@
       <c r="C247" s="3">
         <v>5343</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D247">
+        <v>55159</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="7">
         <v>44425</v>
       </c>
@@ -3193,8 +3934,11 @@
       <c r="C248" s="3">
         <v>20123</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D248">
+        <v>55393</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="7">
         <v>44426</v>
       </c>
@@ -3204,8 +3948,11 @@
       <c r="C249" s="3">
         <v>20058</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D249">
+        <v>55646</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="7">
         <v>44427</v>
       </c>
@@ -3215,8 +3962,11 @@
       <c r="C250" s="3">
         <v>10772</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D250">
+        <v>55882</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="7">
         <v>44428</v>
       </c>
@@ -3226,8 +3976,11 @@
       <c r="C251" s="3">
         <v>11762</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D251">
+        <v>56126</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="7">
         <v>44429</v>
       </c>
@@ -3237,8 +3990,11 @@
       <c r="C252" s="3">
         <v>18724</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D252">
+        <v>56393</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="7">
         <v>44430</v>
       </c>
@@ -3248,8 +4004,11 @@
       <c r="C253" s="3">
         <v>11444</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D253">
+        <v>56668</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="7">
         <v>44431</v>
       </c>
@@ -3259,8 +4018,11 @@
       <c r="C254" s="3">
         <v>4809</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D254">
+        <v>56947</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="7">
         <v>44432</v>
       </c>
@@ -3270,8 +4032,11 @@
       <c r="C255" s="3">
         <v>15516</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D255">
+        <v>57227</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="7">
         <v>44433</v>
       </c>
@@ -3281,8 +4046,11 @@
       <c r="C256" s="3">
         <v>18826</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D256">
+        <v>57504</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="7">
         <v>44434</v>
       </c>
@@ -3292,8 +4060,11 @@
       <c r="C257" s="3">
         <v>13633</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D257">
+        <v>57789</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="7">
         <v>44435</v>
       </c>
@@ -3303,8 +4074,11 @@
       <c r="C258" s="3">
         <v>12229</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D258">
+        <v>58078</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="7">
         <v>44436</v>
       </c>
@@ -3314,8 +4088,11 @@
       <c r="C259" s="3">
         <v>12844</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D259">
+        <v>58382</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="7">
         <v>44437</v>
       </c>
@@ -3325,8 +4102,11 @@
       <c r="C260" s="3">
         <v>2857</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D260">
+        <v>58637</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="7">
         <v>44438</v>
       </c>
@@ -3336,8 +4116,11 @@
       <c r="C261" s="3">
         <v>8410</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D261">
+        <v>58933</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="7">
         <v>44439</v>
       </c>
@@ -3347,8 +4130,11 @@
       <c r="C262" s="3">
         <v>22746</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D262">
+        <v>59215</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="7">
         <v>44440</v>
       </c>
@@ -3358,8 +4144,11 @@
       <c r="C263" s="3">
         <v>17033</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D263">
+        <v>59534</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="7">
         <v>44441</v>
       </c>
@@ -3369,8 +4158,11 @@
       <c r="C264" s="3">
         <v>17099</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D264">
+        <v>59819</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="7">
         <v>44442</v>
       </c>
@@ -3380,8 +4172,11 @@
       <c r="C265" s="3">
         <v>19231</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D265">
+        <v>60099</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="7">
         <v>44443</v>
       </c>
@@ -3391,8 +4186,11 @@
       <c r="C266" s="3">
         <v>13912</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D266">
+        <v>60372</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="7">
         <v>44444</v>
       </c>
@@ -3402,8 +4200,11 @@
       <c r="C267" s="3">
         <v>6844</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D267">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="7">
         <v>44445</v>
       </c>
@@ -3413,8 +4214,11 @@
       <c r="C268" s="3">
         <v>2607</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D268">
+        <v>60877</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="7">
         <v>44446</v>
       </c>
@@ -3424,8 +4228,11 @@
       <c r="C269" s="3">
         <v>5964</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D269">
+        <v>61131</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="7">
         <v>44447</v>
       </c>
@@ -3435,8 +4242,11 @@
       <c r="C270" s="3">
         <v>25184</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D270">
+        <v>61377</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="7">
         <v>44448</v>
       </c>
@@ -3446,8 +4256,11 @@
       <c r="C271" s="3">
         <v>23700</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D271">
+        <v>61633</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="7">
         <v>44449</v>
       </c>
@@ -3457,8 +4270,11 @@
       <c r="C272" s="3">
         <v>19050</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D272">
+        <v>61934</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="7">
         <v>44450</v>
       </c>
@@ -3468,8 +4284,11 @@
       <c r="C273" s="3">
         <v>10100</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D273">
+        <v>62177</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="7">
         <v>44451</v>
       </c>
@@ -3479,8 +4298,11 @@
       <c r="C274" s="3">
         <v>3952</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D274">
+        <v>62384</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="7">
         <v>44452</v>
       </c>
@@ -3490,8 +4312,11 @@
       <c r="C275" s="3">
         <v>8140</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D275">
+        <v>62616</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="7">
         <v>44453</v>
       </c>
@@ -3501,8 +4326,11 @@
       <c r="C276" s="3">
         <v>17373</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D276">
+        <v>62830</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="7">
         <v>44454</v>
       </c>
@@ -3512,8 +4340,11 @@
       <c r="C277" s="3">
         <v>20201</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D277">
+        <v>63042</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="7">
         <v>44455</v>
       </c>
@@ -3523,8 +4354,11 @@
       <c r="C278" s="3">
         <v>14931</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D278">
+        <v>63241</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="7">
         <v>44456</v>
       </c>
@@ -3534,8 +4368,11 @@
       <c r="C279" s="3">
         <v>13929</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D279">
+        <v>63459</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="7">
         <v>44457</v>
       </c>
@@ -3545,8 +4382,11 @@
       <c r="C280" s="3">
         <v>11221</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D280">
+        <v>63632</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="7">
         <v>44458</v>
       </c>
@@ -3556,8 +4396,11 @@
       <c r="C281" s="3">
         <v>2216</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D281">
+        <v>63811</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="7">
         <v>44459</v>
       </c>
@@ -3567,8 +4410,11 @@
       <c r="C282" s="3">
         <v>4314</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D282">
+        <v>63979</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="7">
         <v>44460</v>
       </c>
@@ -3578,8 +4424,11 @@
       <c r="C283" s="3">
         <v>10534</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D283">
+        <v>64115</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="7">
         <v>44461</v>
       </c>
@@ -3589,8 +4438,11 @@
       <c r="C284" s="3">
         <v>14623</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D284">
+        <v>64231</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="7">
         <v>44462</v>
       </c>
@@ -3600,8 +4452,11 @@
       <c r="C285" s="3">
         <v>8072</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D285">
+        <v>64329</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="7">
         <v>44463</v>
       </c>
@@ -3611,8 +4466,11 @@
       <c r="C286" s="3">
         <v>9705</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D286">
+        <v>64399</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="7">
         <v>44464</v>
       </c>
@@ -3622,8 +4480,11 @@
       <c r="C287" s="3">
         <v>9513</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D287">
+        <v>64465</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="7">
         <v>44465</v>
       </c>
@@ -3633,8 +4494,11 @@
       <c r="C288" s="3">
         <v>4531</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D288">
+        <v>64521</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="7">
         <v>44466</v>
       </c>
@@ -3644,8 +4508,11 @@
       <c r="C289" s="3">
         <v>4853</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D289">
+        <v>64564</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="7">
         <v>44467</v>
       </c>
@@ -3655,8 +4522,11 @@
       <c r="C290" s="3">
         <v>11375</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D290">
+        <v>64582</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="7">
         <v>44468</v>
       </c>
@@ -3666,8 +4536,11 @@
       <c r="C291" s="3">
         <v>9168</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D291">
+        <v>64589</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="7">
         <v>44469</v>
       </c>
@@ -3677,10 +4550,9 @@
       <c r="C292" s="3">
         <v>8285</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A293" s="9"/>
-      <c r="B293" s="8"/>
+      <c r="D292">
+        <v>64590</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
